--- a/Proyectos/BO/Librería de Trabajo/Gestión de Proyecto/BO_C.xlsx
+++ b/Proyectos/BO/Librería de Trabajo/Gestión de Proyecto/BO_C.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositorio_GIT\G2_ALPHA_BUSINESS\BO\Librería de Trabajo\Gestión de Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositorio_GIT\G2_ALPHA_BUSINESS\Proyectos\BO\Librería de Trabajo\Gestión de Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,9 +564,7 @@
       <c r="D5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="13">
-        <v>42490</v>
-      </c>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
@@ -625,10 +623,10 @@
         <v>8</v>
       </c>
       <c r="E13" s="12">
-        <v>42455</v>
+        <v>42482</v>
       </c>
       <c r="F13" s="12">
-        <v>42460</v>
+        <v>42490</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
@@ -639,10 +637,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="13">
-        <v>42455</v>
+        <v>42482</v>
       </c>
       <c r="F14" s="13">
-        <v>42456</v>
+        <v>42483</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
@@ -653,10 +651,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="13">
-        <v>42456</v>
+        <v>42483</v>
       </c>
       <c r="F15" s="13">
-        <v>42457</v>
+        <v>42484</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
@@ -667,10 +665,10 @@
         <v>3</v>
       </c>
       <c r="E16" s="13">
-        <v>42456</v>
+        <v>42484</v>
       </c>
       <c r="F16" s="13">
-        <v>42459</v>
+        <v>42487</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
@@ -681,10 +679,10 @@
         <v>2</v>
       </c>
       <c r="E17" s="13">
-        <v>42458</v>
+        <v>42487</v>
       </c>
       <c r="F17" s="13">
-        <v>42460</v>
+        <v>42489</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
@@ -695,10 +693,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="13">
-        <v>42459</v>
+        <v>42489</v>
       </c>
       <c r="F18" s="13">
-        <v>42460</v>
+        <v>42490</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
@@ -706,13 +704,13 @@
         <v>6</v>
       </c>
       <c r="D19" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19" s="12">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="F19" s="12">
-        <v>42466</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
@@ -723,10 +721,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="14">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="F20" s="13">
-        <v>42462</v>
+        <v>42491</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
@@ -734,13 +732,13 @@
         <v>8</v>
       </c>
       <c r="D21" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" s="13">
-        <v>42463</v>
+        <v>42491</v>
       </c>
       <c r="F21" s="13">
-        <v>42464</v>
+        <v>42494</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
@@ -751,10 +749,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="13">
-        <v>42465</v>
+        <v>42495</v>
       </c>
       <c r="F22" s="13">
-        <v>42466</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">

--- a/Proyectos/BO/Librería de Trabajo/Gestión de Proyecto/BO_C.xlsx
+++ b/Proyectos/BO/Librería de Trabajo/Gestión de Proyecto/BO_C.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositorio_GIT\G2_ALPHA_BUSINESS\Proyectos\BO\Librería de Trabajo\Gestión de Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moxito\Documents\G2_ALPHA_BUSINESS\Proyectos\BO\Librería de Trabajo\Gestión de Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>1.Planificacion de la gestión BACKOFFICE</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t xml:space="preserve">De La Cruz Quispe Victor </t>
+  </si>
+  <si>
+    <t>31/04/2016</t>
   </si>
 </sst>
 </file>
@@ -530,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,10 +766,10 @@
         <v>13</v>
       </c>
       <c r="E23" s="12">
-        <v>42466</v>
+        <v>42499</v>
       </c>
       <c r="F23" s="12">
-        <v>42480</v>
+        <v>42512</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
@@ -777,10 +780,10 @@
         <v>2</v>
       </c>
       <c r="E24" s="13">
-        <v>42466</v>
+        <v>42499</v>
       </c>
       <c r="F24" s="13">
-        <v>42468</v>
+        <v>42501</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
@@ -791,10 +794,10 @@
         <v>1</v>
       </c>
       <c r="E25" s="13">
-        <v>42468</v>
+        <v>42501</v>
       </c>
       <c r="F25" s="13">
-        <v>42469</v>
+        <v>42502</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
@@ -805,10 +808,10 @@
         <v>2</v>
       </c>
       <c r="E26" s="13">
-        <v>42470</v>
+        <v>42502</v>
       </c>
       <c r="F26" s="13">
-        <v>42472</v>
+        <v>42504</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
@@ -819,10 +822,10 @@
         <v>5</v>
       </c>
       <c r="E27" s="13">
-        <v>42472</v>
+        <v>42504</v>
       </c>
       <c r="F27" s="13">
-        <v>42477</v>
+        <v>42509</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
@@ -833,22 +836,24 @@
         <v>3</v>
       </c>
       <c r="E28" s="13">
-        <v>42477</v>
+        <v>42509</v>
       </c>
       <c r="F28" s="13">
-        <v>42480</v>
+        <v>42512</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="5">
+        <v>8</v>
+      </c>
       <c r="E29" s="12">
-        <v>42482</v>
-      </c>
-      <c r="F29" s="12">
-        <v>42490</v>
+        <v>42513</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
@@ -859,10 +864,10 @@
         <v>4</v>
       </c>
       <c r="E30" s="13">
-        <v>42482</v>
+        <v>42513</v>
       </c>
       <c r="F30" s="13">
-        <v>42486</v>
+        <v>42517</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
@@ -873,10 +878,10 @@
         <v>4</v>
       </c>
       <c r="E31" s="13">
-        <v>42486</v>
+        <v>42517</v>
       </c>
       <c r="F31" s="13">
-        <v>42490</v>
+        <v>42521</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
